--- a/upload/excel/2504_초장중_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2504_초장중_발주서_이가에프엔비_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AK22"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -766,6 +767,11 @@
       <c r="AK5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -842,6 +848,9 @@
         <is>
           <t>8</t>
         </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -914,6 +923,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AL7" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -984,6 +996,9 @@
         <is>
           <t>14</t>
         </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="9">
@@ -1060,6 +1075,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="AL9" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1130,6 +1148,9 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="11">
@@ -1202,6 +1223,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AL11" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
@@ -1273,6 +1297,9 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
@@ -1347,6 +1374,9 @@
         <is>
           <t>40</t>
         </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="14">
@@ -1415,6 +1445,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="AL14" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
@@ -1485,6 +1518,9 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>6060</v>
       </c>
     </row>
     <row r="16">
@@ -1553,6 +1589,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AL16" t="n">
+        <v>6400</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -1627,6 +1666,9 @@
         <is>
           <t>9</t>
         </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="18">
@@ -1698,6 +1740,9 @@
         <is>
           <t>5</t>
         </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="19">
@@ -1770,6 +1815,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AL19" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1840,6 +1888,9 @@
         <is>
           <t>2</t>
         </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="21">
@@ -1912,6 +1963,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="AL21" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr"/>
